--- a/personal-logs/RainShen_WorkLog.xlsx
+++ b/personal-logs/RainShen_WorkLog.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MDS\Capstone\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MDS\Capstone\w2020-data599-capstone-projects-statistics-canada-transit\personal-logs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A24604EE-20AF-4B02-9A8B-F74A1CE4932D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6D2A836-8F2B-489F-80E5-99887102F1C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1200,21 +1200,7 @@
     <cellStyle name="Total" xfId="41" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="42" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="169">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="167">
     <dxf>
       <fill>
         <patternFill>
@@ -2762,8 +2748,8 @@
   </sheetPr>
   <dimension ref="A1:C53"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.9" x14ac:dyDescent="0.45"/>
@@ -2843,7 +2829,7 @@
         <v>31</v>
       </c>
       <c r="B14" s="13">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="15.4" x14ac:dyDescent="0.45">
@@ -2968,7 +2954,7 @@
       </c>
       <c r="B40" s="32">
         <f>SUM(B14:B38)</f>
-        <v>29.5</v>
+        <v>31.5</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="14.25" thickTop="1" x14ac:dyDescent="0.45">
@@ -3019,102 +3005,102 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A36">
-    <cfRule type="expression" dxfId="168" priority="20" stopIfTrue="1">
+    <cfRule type="expression" dxfId="166" priority="20" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A35">
-    <cfRule type="expression" dxfId="167" priority="19" stopIfTrue="1">
+    <cfRule type="expression" dxfId="165" priority="19" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B14:B18">
-    <cfRule type="expression" dxfId="166" priority="18" stopIfTrue="1">
+    <cfRule type="expression" dxfId="164" priority="18" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15:A20">
-    <cfRule type="expression" dxfId="165" priority="17" stopIfTrue="1">
+    <cfRule type="expression" dxfId="163" priority="17" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17:A18">
-    <cfRule type="expression" dxfId="164" priority="16" stopIfTrue="1">
+    <cfRule type="expression" dxfId="162" priority="16" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19">
-    <cfRule type="expression" dxfId="163" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="161" priority="15" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:A34">
-    <cfRule type="expression" dxfId="162" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="160" priority="14" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B20">
-    <cfRule type="expression" dxfId="161" priority="13" stopIfTrue="1">
+    <cfRule type="expression" dxfId="159" priority="13" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B25">
-    <cfRule type="expression" dxfId="160" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="158" priority="12" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B27">
-    <cfRule type="expression" dxfId="159" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="157" priority="11" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B29">
-    <cfRule type="expression" dxfId="158" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="156" priority="10" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B31">
-    <cfRule type="expression" dxfId="157" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="155" priority="9" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B33">
-    <cfRule type="expression" dxfId="156" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="154" priority="8" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B35">
-    <cfRule type="expression" dxfId="155" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="153" priority="7" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B37">
-    <cfRule type="expression" dxfId="154" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="152" priority="6" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A37">
-    <cfRule type="expression" dxfId="153" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="151" priority="5" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A35">
-    <cfRule type="expression" dxfId="152" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="150" priority="4" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B36">
-    <cfRule type="expression" dxfId="151" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="149" priority="3" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A36">
-    <cfRule type="expression" dxfId="150" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="148" priority="2" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14">
-    <cfRule type="expression" dxfId="149" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="147" priority="1" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3401,102 +3387,102 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A35 B14:B17">
-    <cfRule type="expression" dxfId="148" priority="22" stopIfTrue="1">
+    <cfRule type="expression" dxfId="146" priority="22" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A34">
-    <cfRule type="expression" dxfId="147" priority="21" stopIfTrue="1">
+    <cfRule type="expression" dxfId="145" priority="21" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14:A16">
-    <cfRule type="expression" dxfId="146" priority="19" stopIfTrue="1">
+    <cfRule type="expression" dxfId="144" priority="19" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A16">
-    <cfRule type="expression" dxfId="145" priority="18" stopIfTrue="1">
+    <cfRule type="expression" dxfId="143" priority="18" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:A33">
-    <cfRule type="expression" dxfId="144" priority="16" stopIfTrue="1">
+    <cfRule type="expression" dxfId="142" priority="16" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19">
-    <cfRule type="expression" dxfId="143" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="141" priority="15" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B24">
-    <cfRule type="expression" dxfId="142" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="140" priority="14" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B26">
-    <cfRule type="expression" dxfId="141" priority="13" stopIfTrue="1">
+    <cfRule type="expression" dxfId="139" priority="13" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28">
-    <cfRule type="expression" dxfId="140" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="138" priority="12" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B30">
-    <cfRule type="expression" dxfId="139" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="137" priority="11" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B32">
-    <cfRule type="expression" dxfId="138" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="136" priority="10" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B34">
-    <cfRule type="expression" dxfId="137" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="135" priority="9" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B36">
-    <cfRule type="expression" dxfId="136" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="134" priority="8" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A36">
-    <cfRule type="expression" dxfId="135" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="133" priority="7" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A34">
-    <cfRule type="expression" dxfId="134" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="132" priority="6" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B35">
-    <cfRule type="expression" dxfId="133" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="131" priority="5" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A35">
-    <cfRule type="expression" dxfId="132" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="130" priority="4" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A18:A19">
-    <cfRule type="expression" dxfId="131" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="129" priority="3" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17">
-    <cfRule type="expression" dxfId="130" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="128" priority="2" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A20">
-    <cfRule type="expression" dxfId="129" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="127" priority="1" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3779,132 +3765,132 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A35">
-    <cfRule type="expression" dxfId="128" priority="29" stopIfTrue="1">
+    <cfRule type="expression" dxfId="126" priority="29" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A34">
-    <cfRule type="expression" dxfId="127" priority="28" stopIfTrue="1">
+    <cfRule type="expression" dxfId="125" priority="28" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A18:A19">
-    <cfRule type="expression" dxfId="126" priority="26" stopIfTrue="1">
+    <cfRule type="expression" dxfId="124" priority="26" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A18">
-    <cfRule type="expression" dxfId="125" priority="24" stopIfTrue="1">
+    <cfRule type="expression" dxfId="123" priority="24" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A20 A24:A33">
-    <cfRule type="expression" dxfId="124" priority="23" stopIfTrue="1">
+    <cfRule type="expression" dxfId="122" priority="23" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19">
-    <cfRule type="expression" dxfId="123" priority="22" stopIfTrue="1">
+    <cfRule type="expression" dxfId="121" priority="22" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B24">
-    <cfRule type="expression" dxfId="122" priority="21" stopIfTrue="1">
+    <cfRule type="expression" dxfId="120" priority="21" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B26">
-    <cfRule type="expression" dxfId="121" priority="20" stopIfTrue="1">
+    <cfRule type="expression" dxfId="119" priority="20" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28">
-    <cfRule type="expression" dxfId="120" priority="19" stopIfTrue="1">
+    <cfRule type="expression" dxfId="118" priority="19" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B30">
-    <cfRule type="expression" dxfId="119" priority="18" stopIfTrue="1">
+    <cfRule type="expression" dxfId="117" priority="18" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B32">
-    <cfRule type="expression" dxfId="118" priority="17" stopIfTrue="1">
+    <cfRule type="expression" dxfId="116" priority="17" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B34">
-    <cfRule type="expression" dxfId="117" priority="16" stopIfTrue="1">
+    <cfRule type="expression" dxfId="115" priority="16" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B36">
-    <cfRule type="expression" dxfId="116" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="114" priority="15" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A36">
-    <cfRule type="expression" dxfId="115" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="113" priority="14" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A34">
-    <cfRule type="expression" dxfId="114" priority="13" stopIfTrue="1">
+    <cfRule type="expression" dxfId="112" priority="13" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B35">
-    <cfRule type="expression" dxfId="113" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="111" priority="12" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A35">
-    <cfRule type="expression" dxfId="112" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="110" priority="11" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B14:B17">
-    <cfRule type="expression" dxfId="111" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="109" priority="10" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14:A16">
-    <cfRule type="expression" dxfId="110" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="108" priority="9" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A16">
-    <cfRule type="expression" dxfId="109" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="107" priority="8" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17">
-    <cfRule type="expression" dxfId="108" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="106" priority="7" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A22:A23">
-    <cfRule type="expression" dxfId="4" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="105" priority="5" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A22">
-    <cfRule type="expression" dxfId="3" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="104" priority="4" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B23">
-    <cfRule type="expression" dxfId="2" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="103" priority="3" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B21">
-    <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="102" priority="2" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21">
-    <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="101" priority="1" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4187,97 +4173,97 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A35 B14:B17">
-    <cfRule type="expression" dxfId="106" priority="20" stopIfTrue="1">
+    <cfRule type="expression" dxfId="100" priority="20" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A34">
-    <cfRule type="expression" dxfId="105" priority="19" stopIfTrue="1">
+    <cfRule type="expression" dxfId="99" priority="19" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14:A19">
-    <cfRule type="expression" dxfId="104" priority="17" stopIfTrue="1">
+    <cfRule type="expression" dxfId="98" priority="17" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A16:A17">
-    <cfRule type="expression" dxfId="103" priority="16" stopIfTrue="1">
+    <cfRule type="expression" dxfId="97" priority="16" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A18">
-    <cfRule type="expression" dxfId="102" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="96" priority="15" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A20 A22:A33">
-    <cfRule type="expression" dxfId="101" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="95" priority="14" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19">
-    <cfRule type="expression" dxfId="100" priority="13" stopIfTrue="1">
+    <cfRule type="expression" dxfId="94" priority="13" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B24">
-    <cfRule type="expression" dxfId="99" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="93" priority="12" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B26">
-    <cfRule type="expression" dxfId="98" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="92" priority="11" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28">
-    <cfRule type="expression" dxfId="97" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="91" priority="10" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B30">
-    <cfRule type="expression" dxfId="96" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="90" priority="9" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B32">
-    <cfRule type="expression" dxfId="95" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="89" priority="8" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B34">
-    <cfRule type="expression" dxfId="94" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="88" priority="7" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B36">
-    <cfRule type="expression" dxfId="93" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="87" priority="6" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A36">
-    <cfRule type="expression" dxfId="92" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="86" priority="5" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A34">
-    <cfRule type="expression" dxfId="91" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="85" priority="4" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B35">
-    <cfRule type="expression" dxfId="90" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="84" priority="3" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A35">
-    <cfRule type="expression" dxfId="89" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="83" priority="2" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21">
-    <cfRule type="expression" dxfId="88" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="82" priority="1" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4568,102 +4554,102 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A36 B14:B18">
-    <cfRule type="expression" dxfId="87" priority="22" stopIfTrue="1">
+    <cfRule type="expression" dxfId="81" priority="22" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A35">
-    <cfRule type="expression" dxfId="86" priority="21" stopIfTrue="1">
+    <cfRule type="expression" dxfId="80" priority="21" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14:A20">
-    <cfRule type="expression" dxfId="85" priority="19" stopIfTrue="1">
+    <cfRule type="expression" dxfId="79" priority="19" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17:A18">
-    <cfRule type="expression" dxfId="84" priority="18" stopIfTrue="1">
+    <cfRule type="expression" dxfId="78" priority="18" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19">
-    <cfRule type="expression" dxfId="83" priority="17" stopIfTrue="1">
+    <cfRule type="expression" dxfId="77" priority="17" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21 A23:A34">
-    <cfRule type="expression" dxfId="82" priority="16" stopIfTrue="1">
+    <cfRule type="expression" dxfId="76" priority="16" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B20">
-    <cfRule type="expression" dxfId="81" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="75" priority="15" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B25">
-    <cfRule type="expression" dxfId="80" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="74" priority="14" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B27">
-    <cfRule type="expression" dxfId="79" priority="13" stopIfTrue="1">
+    <cfRule type="expression" dxfId="73" priority="13" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B29">
-    <cfRule type="expression" dxfId="78" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="72" priority="12" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B31">
-    <cfRule type="expression" dxfId="77" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="71" priority="11" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B33">
-    <cfRule type="expression" dxfId="76" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="70" priority="10" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B35">
-    <cfRule type="expression" dxfId="75" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="69" priority="9" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B37">
-    <cfRule type="expression" dxfId="74" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="68" priority="8" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A37">
-    <cfRule type="expression" dxfId="73" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="67" priority="7" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A35">
-    <cfRule type="expression" dxfId="72" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="66" priority="6" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B36">
-    <cfRule type="expression" dxfId="71" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="65" priority="5" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A36">
-    <cfRule type="expression" dxfId="70" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="64" priority="4" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A22">
-    <cfRule type="expression" dxfId="69" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="63" priority="3" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B21:B24">
-    <cfRule type="expression" dxfId="68" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="62" priority="1" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4946,102 +4932,102 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A35 B15:B17">
-    <cfRule type="expression" dxfId="66" priority="21" stopIfTrue="1">
+    <cfRule type="expression" dxfId="61" priority="21" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A34">
-    <cfRule type="expression" dxfId="65" priority="20" stopIfTrue="1">
+    <cfRule type="expression" dxfId="60" priority="20" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15:A19">
-    <cfRule type="expression" dxfId="64" priority="18" stopIfTrue="1">
+    <cfRule type="expression" dxfId="59" priority="18" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A16:A17">
-    <cfRule type="expression" dxfId="63" priority="17" stopIfTrue="1">
+    <cfRule type="expression" dxfId="58" priority="17" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A18">
-    <cfRule type="expression" dxfId="62" priority="16" stopIfTrue="1">
+    <cfRule type="expression" dxfId="57" priority="16" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A20 A22:A33">
-    <cfRule type="expression" dxfId="61" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="56" priority="15" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19">
-    <cfRule type="expression" dxfId="60" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="55" priority="14" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B24">
-    <cfRule type="expression" dxfId="59" priority="13" stopIfTrue="1">
+    <cfRule type="expression" dxfId="54" priority="13" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B26">
-    <cfRule type="expression" dxfId="58" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="53" priority="12" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28">
-    <cfRule type="expression" dxfId="57" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="52" priority="11" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B30">
-    <cfRule type="expression" dxfId="56" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="51" priority="10" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B32">
-    <cfRule type="expression" dxfId="55" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="50" priority="9" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B34">
-    <cfRule type="expression" dxfId="54" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="49" priority="8" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B36">
-    <cfRule type="expression" dxfId="53" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="48" priority="7" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A36">
-    <cfRule type="expression" dxfId="52" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="47" priority="6" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A34">
-    <cfRule type="expression" dxfId="51" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="46" priority="5" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B35">
-    <cfRule type="expression" dxfId="50" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="45" priority="4" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A35">
-    <cfRule type="expression" dxfId="49" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="44" priority="3" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14">
-    <cfRule type="expression" dxfId="48" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="43" priority="2" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21">
-    <cfRule type="expression" dxfId="47" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="42" priority="1" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5328,112 +5314,112 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A35 B15:B17">
-    <cfRule type="expression" dxfId="46" priority="23" stopIfTrue="1">
+    <cfRule type="expression" dxfId="41" priority="23" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A34">
-    <cfRule type="expression" dxfId="45" priority="22" stopIfTrue="1">
+    <cfRule type="expression" dxfId="40" priority="22" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15:A19">
-    <cfRule type="expression" dxfId="44" priority="20" stopIfTrue="1">
+    <cfRule type="expression" dxfId="39" priority="20" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A16:A17">
-    <cfRule type="expression" dxfId="43" priority="19" stopIfTrue="1">
+    <cfRule type="expression" dxfId="38" priority="19" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A18">
-    <cfRule type="expression" dxfId="42" priority="18" stopIfTrue="1">
+    <cfRule type="expression" dxfId="37" priority="18" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A20 A23:A33">
-    <cfRule type="expression" dxfId="41" priority="17" stopIfTrue="1">
+    <cfRule type="expression" dxfId="36" priority="17" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19">
-    <cfRule type="expression" dxfId="40" priority="16" stopIfTrue="1">
+    <cfRule type="expression" dxfId="35" priority="16" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B24">
-    <cfRule type="expression" dxfId="39" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="34" priority="15" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B26">
-    <cfRule type="expression" dxfId="38" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="33" priority="14" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28">
-    <cfRule type="expression" dxfId="37" priority="13" stopIfTrue="1">
+    <cfRule type="expression" dxfId="32" priority="13" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B30">
-    <cfRule type="expression" dxfId="36" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="31" priority="12" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B32">
-    <cfRule type="expression" dxfId="35" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="30" priority="11" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B34">
-    <cfRule type="expression" dxfId="34" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="29" priority="10" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B36">
-    <cfRule type="expression" dxfId="33" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="28" priority="9" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A36">
-    <cfRule type="expression" dxfId="32" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="27" priority="8" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A34">
-    <cfRule type="expression" dxfId="31" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="26" priority="7" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B35">
-    <cfRule type="expression" dxfId="30" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="25" priority="6" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A35">
-    <cfRule type="expression" dxfId="29" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="24" priority="5" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14">
-    <cfRule type="expression" dxfId="28" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="23" priority="4" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21">
-    <cfRule type="expression" dxfId="27" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="22" priority="3" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A22">
-    <cfRule type="expression" dxfId="26" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="21" priority="2" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A22">
-    <cfRule type="expression" dxfId="25" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="20" priority="1" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5740,102 +5726,102 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A36">
-    <cfRule type="expression" dxfId="24" priority="28" stopIfTrue="1">
+    <cfRule type="expression" dxfId="19" priority="28" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A35">
-    <cfRule type="expression" dxfId="23" priority="26" stopIfTrue="1">
+    <cfRule type="expression" dxfId="18" priority="26" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B14:B18">
-    <cfRule type="expression" dxfId="22" priority="23" stopIfTrue="1">
+    <cfRule type="expression" dxfId="17" priority="23" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15:A20">
-    <cfRule type="expression" dxfId="21" priority="18" stopIfTrue="1">
+    <cfRule type="expression" dxfId="16" priority="18" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17:A18">
-    <cfRule type="expression" dxfId="20" priority="17" stopIfTrue="1">
+    <cfRule type="expression" dxfId="15" priority="17" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19">
-    <cfRule type="expression" dxfId="19" priority="16" stopIfTrue="1">
+    <cfRule type="expression" dxfId="14" priority="16" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:A25 A27:A34">
-    <cfRule type="expression" dxfId="18" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="13" priority="15" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B20">
-    <cfRule type="expression" dxfId="17" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="12" priority="14" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B25">
-    <cfRule type="expression" dxfId="16" priority="13" stopIfTrue="1">
+    <cfRule type="expression" dxfId="11" priority="13" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B27">
-    <cfRule type="expression" dxfId="15" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="10" priority="12" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B29">
-    <cfRule type="expression" dxfId="14" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="9" priority="11" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B31">
-    <cfRule type="expression" dxfId="13" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="8" priority="10" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B33">
-    <cfRule type="expression" dxfId="12" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="7" priority="9" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B35">
-    <cfRule type="expression" dxfId="11" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="6" priority="8" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B37">
-    <cfRule type="expression" dxfId="10" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="5" priority="7" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A37">
-    <cfRule type="expression" dxfId="9" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="4" priority="6" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A35">
-    <cfRule type="expression" dxfId="8" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="3" priority="5" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B36">
-    <cfRule type="expression" dxfId="7" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="2" priority="4" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A36">
-    <cfRule type="expression" dxfId="6" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="3" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26">
-    <cfRule type="expression" dxfId="5" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
